--- a/契約書関連_ゆうきくん/お見積り_テンプレート.xlsx
+++ b/契約書関連_ゆうきくん/お見積り_テンプレート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D3966E-3889-47A6-8FC8-A4940ABCABB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47064B-B62A-4625-8B60-A191A64D2115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{64AE949F-3596-43FF-9CC4-E39B4EC592E5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{64AE949F-3596-43FF-9CC4-E39B4EC592E5}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" r:id="rId1"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ロレックス　シードゥエラー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -168,6 +164,10 @@
   </si>
   <si>
     <t xml:space="preserve"> 03-1234-5678   03-1234-5679</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロレックス　サブマリーナ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -631,6 +631,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -647,105 +746,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="183" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1042,8 +1042,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5140832" y="12687727"/>
-          <a:ext cx="3548450" cy="447272"/>
+          <a:off x="4945797" y="12692262"/>
+          <a:ext cx="3444128" cy="442737"/>
           <a:chOff x="4886324" y="-276225"/>
           <a:chExt cx="3552826" cy="388568"/>
         </a:xfrm>
@@ -1670,32 +1670,30 @@
   </sheetPr>
   <dimension ref="A1:DW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.78515625" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.35546875" customWidth="1"/>
-    <col min="4" max="4" width="3.2109375" customWidth="1"/>
-    <col min="5" max="5" width="4.78515625" customWidth="1"/>
-    <col min="6" max="6" width="10.78515625" customWidth="1"/>
-    <col min="7" max="7" width="4.78515625" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="4.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="3.78515625" customWidth="1"/>
-    <col min="11" max="11" width="6.78515625" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="5.78515625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="5.77734375" style="47" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="12.35546875" customWidth="1"/>
-    <col min="16" max="16" width="6.78515625" customWidth="1"/>
-    <col min="17" max="18" width="1.78515625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" customWidth="1"/>
+    <col min="17" max="18" width="1.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:127" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="1:127" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1816,57 +1814,58 @@
       <c r="DV1"/>
       <c r="DW1"/>
     </row>
-    <row r="2" spans="1:127" ht="18.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:127" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="80">
+      <c r="O2" s="65">
         <v>1</v>
       </c>
-      <c r="P2" s="80"/>
+      <c r="P2" s="65"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:127" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:127" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="81">
-        <v>44966</v>
-      </c>
-      <c r="P3" s="81"/>
+      <c r="O3" s="66">
+        <f ca="1">TODAY()</f>
+        <v>45056</v>
+      </c>
+      <c r="P3" s="66"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:127" ht="8.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:127" ht="8.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1886,23 +1885,23 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:127" ht="17.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:127" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="84" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="84"/>
+      <c r="L5" s="69"/>
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1910,19 +1909,19 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:127" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:127" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1930,7 +1929,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:127" ht="26" thickTop="1" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:127" ht="25.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1950,7 +1949,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:127" ht="25.5" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:127" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -1969,7 +1968,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:127" ht="25.5" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:127" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1989,106 +1988,106 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:127" ht="24.75" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:127" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="69">
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="54">
         <f>O40</f>
-        <v>1621300</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
+        <v>1700000</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:127" ht="26" thickTop="1" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:127" ht="25.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77">
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62">
         <v>44966</v>
       </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="25"/>
       <c r="J14" s="14"/>
       <c r="K14" s="18"/>
@@ -2100,7 +2099,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2120,7 +2119,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:127" ht="12.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:127" ht="12.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2140,22 +2139,22 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="2:127" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
+    <row r="17" spans="2:127" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -2266,30 +2265,30 @@
       <c r="DV17"/>
       <c r="DW17"/>
     </row>
-    <row r="18" spans="2:127" s="1" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="61" t="s">
+    <row r="18" spans="2:127" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="62" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62" t="s">
+      <c r="L18" s="79"/>
+      <c r="M18" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62" t="s">
+      <c r="N18" s="79"/>
+      <c r="O18" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="P18" s="62"/>
+      <c r="P18" s="79"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -2400,31 +2399,31 @@
       <c r="DV18"/>
       <c r="DW18"/>
     </row>
-    <row r="19" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B19" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55">
-        <v>1473909</v>
-      </c>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55">
+    <row r="19" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73">
+        <v>1545454</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73">
         <v>1</v>
       </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55">
+      <c r="N19" s="73"/>
+      <c r="O19" s="73">
         <f t="shared" ref="O19:O38" si="0">M19*K19</f>
-        <v>1473909</v>
-      </c>
-      <c r="P19" s="55"/>
+        <v>1545454</v>
+      </c>
+      <c r="P19" s="73"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -2535,25 +2534,25 @@
       <c r="DV19"/>
       <c r="DW19"/>
     </row>
-    <row r="20" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57">
+    <row r="20" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="57"/>
+      <c r="P20" s="76"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -2664,25 +2663,25 @@
       <c r="DV20"/>
       <c r="DW20"/>
     </row>
-    <row r="21" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55">
+    <row r="21" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="55"/>
+      <c r="P21" s="73"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -2793,25 +2792,25 @@
       <c r="DV21"/>
       <c r="DW21"/>
     </row>
-    <row r="22" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57">
+    <row r="22" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="57"/>
+      <c r="P22" s="76"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -2922,25 +2921,25 @@
       <c r="DV22"/>
       <c r="DW22"/>
     </row>
-    <row r="23" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55">
+    <row r="23" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="55"/>
+      <c r="P23" s="73"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
@@ -3051,27 +3050,27 @@
       <c r="DV23"/>
       <c r="DW23"/>
     </row>
-    <row r="24" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B24" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57">
+    <row r="24" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="57"/>
+      <c r="P24" s="76"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -3182,27 +3181,27 @@
       <c r="DV24"/>
       <c r="DW24"/>
     </row>
-    <row r="25" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B25" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55">
+    <row r="25" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="55"/>
+      <c r="P25" s="73"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -3313,27 +3312,27 @@
       <c r="DV25"/>
       <c r="DW25"/>
     </row>
-    <row r="26" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B26" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57">
+    <row r="26" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="57"/>
+      <c r="P26" s="76"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
@@ -3444,27 +3443,27 @@
       <c r="DV26"/>
       <c r="DW26"/>
     </row>
-    <row r="27" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B27" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55">
+    <row r="27" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="55"/>
+      <c r="P27" s="73"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
@@ -3575,27 +3574,27 @@
       <c r="DV27"/>
       <c r="DW27"/>
     </row>
-    <row r="28" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B28" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57">
+    <row r="28" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="57"/>
+      <c r="P28" s="76"/>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
@@ -3706,27 +3705,27 @@
       <c r="DV28"/>
       <c r="DW28"/>
     </row>
-    <row r="29" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B29" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55">
+    <row r="29" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="55"/>
+      <c r="P29" s="73"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -3837,27 +3836,27 @@
       <c r="DV29"/>
       <c r="DW29"/>
     </row>
-    <row r="30" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B30" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57">
+    <row r="30" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="57"/>
+      <c r="P30" s="76"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
@@ -3968,27 +3967,27 @@
       <c r="DV30"/>
       <c r="DW30"/>
     </row>
-    <row r="31" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B31" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55">
+    <row r="31" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="55"/>
+      <c r="P31" s="73"/>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
@@ -4099,27 +4098,27 @@
       <c r="DV31"/>
       <c r="DW31"/>
     </row>
-    <row r="32" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B32" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57">
+    <row r="32" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="57"/>
+      <c r="P32" s="76"/>
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
@@ -4230,27 +4229,27 @@
       <c r="DV32"/>
       <c r="DW32"/>
     </row>
-    <row r="33" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B33" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55">
+    <row r="33" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="55"/>
+      <c r="P33" s="73"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -4361,27 +4360,27 @@
       <c r="DV33"/>
       <c r="DW33"/>
     </row>
-    <row r="34" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B34" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57">
+    <row r="34" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P34" s="57"/>
+      <c r="P34" s="76"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
@@ -4492,27 +4491,27 @@
       <c r="DV34"/>
       <c r="DW34"/>
     </row>
-    <row r="35" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B35" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55">
+    <row r="35" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P35" s="55"/>
+      <c r="P35" s="73"/>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
@@ -4623,27 +4622,27 @@
       <c r="DV35"/>
       <c r="DW35"/>
     </row>
-    <row r="36" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B36" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57">
+    <row r="36" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P36" s="57"/>
+      <c r="P36" s="76"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
@@ -4754,27 +4753,27 @@
       <c r="DV36"/>
       <c r="DW36"/>
     </row>
-    <row r="37" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B37" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55">
+    <row r="37" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P37" s="55"/>
+      <c r="P37" s="73"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -4885,27 +4884,27 @@
       <c r="DV37"/>
       <c r="DW37"/>
     </row>
-    <row r="38" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57">
+    <row r="38" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P38" s="57"/>
+      <c r="P38" s="76"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -5016,7 +5015,7 @@
       <c r="DV38"/>
       <c r="DW38"/>
     </row>
-    <row r="39" spans="2:127" s="1" customFormat="1" ht="3.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="2:127" s="1" customFormat="1" ht="3.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="28"/>
@@ -5142,39 +5141,39 @@
       <c r="DV39"/>
       <c r="DW39"/>
     </row>
-    <row r="40" spans="2:127" s="1" customFormat="1" ht="38.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="B40" s="50" t="s">
+    <row r="40" spans="2:127" s="1" customFormat="1" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B40" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84">
+        <f>SUM(O19:P38)</f>
+        <v>1545454</v>
+      </c>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51">
-        <f>SUM(O19:P38)</f>
-        <v>1473909</v>
-      </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="52"/>
+      <c r="H40" s="85"/>
       <c r="I40" s="32">
         <v>10</v>
       </c>
-      <c r="J40" s="51">
+      <c r="J40" s="84">
         <f>ROUNDUP(D40*I40/100,0)</f>
-        <v>147391</v>
-      </c>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="53"/>
-      <c r="O40" s="51">
+        <v>154546</v>
+      </c>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="86"/>
+      <c r="O40" s="84">
         <f>D40+J40</f>
-        <v>1621300</v>
-      </c>
-      <c r="P40" s="51"/>
+        <v>1700000</v>
+      </c>
+      <c r="P40" s="84"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
@@ -5285,7 +5284,7 @@
       <c r="DV40"/>
       <c r="DW40"/>
     </row>
-    <row r="41" spans="2:127" s="1" customFormat="1" ht="8.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:127" s="1" customFormat="1" ht="8.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
@@ -5411,7 +5410,7 @@
       <c r="DV41"/>
       <c r="DW41"/>
     </row>
-    <row r="42" spans="2:127" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:127" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
@@ -5537,7 +5536,7 @@
       <c r="DV42"/>
       <c r="DW42"/>
     </row>
-    <row r="43" spans="2:127" s="1" customFormat="1" ht="8.15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:127" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
@@ -5663,9 +5662,9 @@
       <c r="DV43"/>
       <c r="DW43"/>
     </row>
-    <row r="44" spans="2:127" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:127" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="17"/>
@@ -5785,7 +5784,7 @@
       <c r="DV44"/>
       <c r="DW44"/>
     </row>
-    <row r="45" spans="2:127" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.95">
+    <row r="45" spans="2:127" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
       <c r="B45" s="41"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -5795,7 +5794,7 @@
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
       <c r="J45" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45" s="4"/>
       <c r="S45"/>
@@ -5908,7 +5907,7 @@
       <c r="DV45"/>
       <c r="DW45"/>
     </row>
-    <row r="46" spans="2:127" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.75">
+    <row r="46" spans="2:127" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.5">
       <c r="B46" s="41"/>
       <c r="C46" s="43"/>
       <c r="D46" s="17"/>
@@ -6031,7 +6030,7 @@
       <c r="DV46"/>
       <c r="DW46"/>
     </row>
-    <row r="47" spans="2:127" s="1" customFormat="1" ht="24.9" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="2:127" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B47" s="41"/>
       <c r="C47" s="43"/>
       <c r="D47" s="17"/>
@@ -6041,7 +6040,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47" s="4"/>
       <c r="S47"/>
@@ -6154,7 +6153,7 @@
       <c r="DV47"/>
       <c r="DW47"/>
     </row>
-    <row r="48" spans="2:127" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:127" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.45">
       <c r="B48" s="41"/>
       <c r="C48" s="43"/>
       <c r="D48" s="17"/>
@@ -6164,15 +6163,15 @@
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="45"/>
       <c r="N48" s="17"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="48"/>
-      <c r="Q48" s="48"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
@@ -6283,17 +6282,17 @@
       <c r="DV48"/>
       <c r="DW48"/>
     </row>
-    <row r="49" spans="1:127" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:127" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B49" s="41"/>
       <c r="C49" s="39"/>
       <c r="D49" s="33"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="82"/>
       <c r="I49" s="17"/>
       <c r="J49" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="4"/>
@@ -6409,7 +6408,7 @@
       <c r="DV49"/>
       <c r="DW49"/>
     </row>
-    <row r="50" spans="1:127" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:127" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B50" s="41"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -6419,7 +6418,7 @@
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
       <c r="J50" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M50" s="4"/>
       <c r="S50"/>
@@ -6532,7 +6531,7 @@
       <c r="DV50"/>
       <c r="DW50"/>
     </row>
-    <row r="51" spans="1:127" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:127" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6552,7 +6551,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:127" ht="24.9" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6572,26 +6571,92 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:127" ht="24.9" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="54" spans="1:127" ht="24.9" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="55" spans="1:127" ht="24.9" customHeight="1" x14ac:dyDescent="0.6"/>
-    <row r="56" spans="1:127" ht="24.9" customHeight="1" x14ac:dyDescent="0.6"/>
+    <row r="53" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:J13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="B10:J11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M19:N19"/>
@@ -6608,86 +6673,20 @@
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O48:Q48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:J13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="B10:J11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/契約書関連_ゆうきくん/お見積り_テンプレート.xlsx
+++ b/契約書関連_ゆうきくん/お見積り_テンプレート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB47064B-B62A-4625-8B60-A191A64D2115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67AAAC2-5A4D-475D-8B24-CD39EA7FA910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{64AE949F-3596-43FF-9CC4-E39B4EC592E5}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{64AE949F-3596-43FF-9CC4-E39B4EC592E5}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>　 御　見　積　書</t>
     <rPh sb="4" eb="5">
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>御 中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>〒 123-1234</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -147,27 +143,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>株式会社 日本サンプル</t>
+    <t>ロレックス　サブマリーナ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東京都杉並区〇〇〇１－２－３</t>
+    <t>AXIS株式会社</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>△△△ビル １Ｆ １２３</t>
+    <t>〒571－0022</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>✉ info@japansample.com</t>
+    <t>大阪府門真市沖町17−22</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> 03-1234-5678   03-1234-5679</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ロレックス　サブマリーナ</t>
+    <t>☏070－4007－8394</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -186,7 +178,7 @@
     <numFmt numFmtId="182" formatCode="&quot;(&quot;##&quot;%)&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;消費税( &quot;##&quot; % )&quot;"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,6 +328,13 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -631,6 +630,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="183" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,12 +714,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,49 +741,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="5" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -953,416 +952,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6B56021-15E4-4EC9-AD5C-FBC00EC839A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8225491" y="13199035"/>
-          <a:ext cx="1679388" cy="1618503"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>524996</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>17713</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62518ACE-C0B2-47DF-BB00-17F18132BA7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4945797" y="12692262"/>
-          <a:ext cx="3444128" cy="442737"/>
-          <a:chOff x="4886324" y="-276225"/>
-          <a:chExt cx="3552826" cy="388568"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B869630-E14D-3D11-B947-7B7A1C349058}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6153527" y="-276225"/>
-            <a:ext cx="2285623" cy="388568"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050" cap="rnd">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" rtlCol="0" anchor="ctr" anchorCtr="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Stencil Std" panose="04020904080802020404" pitchFamily="82" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Japan</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1300" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Stencil Std" panose="04020904080802020404" pitchFamily="82" charset="0"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1300" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="小塚明朝 Pro B" panose="02020800000000000000" pitchFamily="18" charset="-128"/>
-                <a:ea typeface="小塚明朝 Pro B" panose="02020800000000000000" pitchFamily="18" charset="-128"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>サンプル</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>( </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>ロゴ</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-ea"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF6C43E-F13A-0E85-1D0E-C5FAE652CBAE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4886324" y="-216191"/>
-            <a:ext cx="1371600" cy="230400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:gradFill flip="none" rotWithShape="1">
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="0"/>
-                  <a:lumOff val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="35000">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="0"/>
-                  <a:lumOff val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="100000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:path path="circle">
-              <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-            </a:path>
-            <a:tileRect/>
-          </a:gradFill>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>§</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>● </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>●</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>●</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>●</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>●</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>§</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1670,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:DW56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1816,52 +1405,52 @@
     </row>
     <row r="2" spans="1:127" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="65">
+      <c r="O2" s="78">
         <v>1</v>
       </c>
-      <c r="P2" s="65"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:127" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="66">
+      <c r="O3" s="79">
         <f ca="1">TODAY()</f>
         <v>45056</v>
       </c>
-      <c r="P3" s="66"/>
+      <c r="P3" s="79"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
@@ -1887,21 +1476,21 @@
     </row>
     <row r="5" spans="1:127" ht="17.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="69" t="s">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="69"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="4"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -1911,17 +1500,17 @@
     </row>
     <row r="6" spans="1:127" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
       <c r="M6" s="4"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -1990,20 +1579,20 @@
     </row>
     <row r="10" spans="1:127" ht="24.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="B10" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
       <c r="P10" s="21"/>
@@ -2012,18 +1601,18 @@
     </row>
     <row r="11" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="22"/>
       <c r="O11" s="23"/>
       <c r="P11" s="1"/>
@@ -2032,23 +1621,23 @@
     </row>
     <row r="12" spans="1:127" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
-      <c r="B12" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="54">
+      <c r="B12" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="69">
         <f>O40</f>
         <v>1700000</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
       <c r="N12" s="23"/>
       <c r="O12" s="24"/>
       <c r="P12" s="1"/>
@@ -2057,18 +1646,18 @@
     </row>
     <row r="13" spans="1:127" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="59"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23"/>
       <c r="P13" s="1"/>
@@ -2077,17 +1666,17 @@
     </row>
     <row r="14" spans="1:127" ht="25.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
-      <c r="B14" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62">
+      <c r="B14" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86">
         <v>44966</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="25"/>
       <c r="J14" s="14"/>
       <c r="K14" s="18"/>
@@ -2140,21 +1729,21 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:127" s="1" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
       <c r="S17"/>
       <c r="T17"/>
       <c r="U17"/>
@@ -2266,29 +1855,29 @@
       <c r="DW17"/>
     </row>
     <row r="18" spans="2:127" s="1" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79" t="s">
+      <c r="L18" s="62"/>
+      <c r="M18" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79" t="s">
+      <c r="N18" s="62"/>
+      <c r="O18" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="79"/>
+      <c r="P18" s="62"/>
       <c r="S18"/>
       <c r="T18"/>
       <c r="U18"/>
@@ -2400,30 +1989,30 @@
       <c r="DW18"/>
     </row>
     <row r="19" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73">
+      <c r="B19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55">
         <v>1545454</v>
       </c>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73">
+      <c r="L19" s="55"/>
+      <c r="M19" s="55">
         <v>1</v>
       </c>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73">
+      <c r="N19" s="55"/>
+      <c r="O19" s="55">
         <f t="shared" ref="O19:O38" si="0">M19*K19</f>
         <v>1545454</v>
       </c>
-      <c r="P19" s="73"/>
+      <c r="P19" s="55"/>
       <c r="S19"/>
       <c r="T19"/>
       <c r="U19"/>
@@ -2535,24 +2124,24 @@
       <c r="DW19"/>
     </row>
     <row r="20" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P20" s="76"/>
+      <c r="P20" s="57"/>
       <c r="S20"/>
       <c r="T20"/>
       <c r="U20"/>
@@ -2664,24 +2253,24 @@
       <c r="DW20"/>
     </row>
     <row r="21" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P21" s="73"/>
+      <c r="P21" s="55"/>
       <c r="S21"/>
       <c r="T21"/>
       <c r="U21"/>
@@ -2793,24 +2382,24 @@
       <c r="DW21"/>
     </row>
     <row r="22" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P22" s="76"/>
+      <c r="P22" s="57"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -2922,24 +2511,24 @@
       <c r="DW22"/>
     </row>
     <row r="23" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P23" s="73"/>
+      <c r="P23" s="55"/>
       <c r="S23"/>
       <c r="T23"/>
       <c r="U23"/>
@@ -3051,26 +2640,26 @@
       <c r="DW23"/>
     </row>
     <row r="24" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76">
+      <c r="B24" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P24" s="76"/>
+      <c r="P24" s="57"/>
       <c r="S24"/>
       <c r="T24"/>
       <c r="U24"/>
@@ -3182,26 +2771,26 @@
       <c r="DW24"/>
     </row>
     <row r="25" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73">
+      <c r="B25" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P25" s="73"/>
+      <c r="P25" s="55"/>
       <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
@@ -3313,26 +2902,26 @@
       <c r="DW25"/>
     </row>
     <row r="26" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76">
+      <c r="B26" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P26" s="76"/>
+      <c r="P26" s="57"/>
       <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
@@ -3444,26 +3033,26 @@
       <c r="DW26"/>
     </row>
     <row r="27" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="73"/>
-      <c r="L27" s="73"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73">
+      <c r="B27" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P27" s="73"/>
+      <c r="P27" s="55"/>
       <c r="S27"/>
       <c r="T27"/>
       <c r="U27"/>
@@ -3575,26 +3164,26 @@
       <c r="DW27"/>
     </row>
     <row r="28" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76">
+      <c r="B28" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P28" s="76"/>
+      <c r="P28" s="57"/>
       <c r="S28"/>
       <c r="T28"/>
       <c r="U28"/>
@@ -3706,26 +3295,26 @@
       <c r="DW28"/>
     </row>
     <row r="29" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73">
+      <c r="B29" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P29" s="73"/>
+      <c r="P29" s="55"/>
       <c r="S29"/>
       <c r="T29"/>
       <c r="U29"/>
@@ -3837,26 +3426,26 @@
       <c r="DW29"/>
     </row>
     <row r="30" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76">
+      <c r="B30" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P30" s="76"/>
+      <c r="P30" s="57"/>
       <c r="S30"/>
       <c r="T30"/>
       <c r="U30"/>
@@ -3968,26 +3557,26 @@
       <c r="DW30"/>
     </row>
     <row r="31" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="73"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73">
+      <c r="B31" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P31" s="73"/>
+      <c r="P31" s="55"/>
       <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
@@ -4099,26 +3688,26 @@
       <c r="DW31"/>
     </row>
     <row r="32" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76">
+      <c r="B32" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P32" s="76"/>
+      <c r="P32" s="57"/>
       <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
@@ -4230,26 +3819,26 @@
       <c r="DW32"/>
     </row>
     <row r="33" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73">
+      <c r="B33" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P33" s="73"/>
+      <c r="P33" s="55"/>
       <c r="S33"/>
       <c r="T33"/>
       <c r="U33"/>
@@ -4361,26 +3950,26 @@
       <c r="DW33"/>
     </row>
     <row r="34" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76">
+      <c r="B34" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P34" s="76"/>
+      <c r="P34" s="57"/>
       <c r="S34"/>
       <c r="T34"/>
       <c r="U34"/>
@@ -4492,26 +4081,26 @@
       <c r="DW34"/>
     </row>
     <row r="35" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73">
+      <c r="B35" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P35" s="73"/>
+      <c r="P35" s="55"/>
       <c r="S35"/>
       <c r="T35"/>
       <c r="U35"/>
@@ -4623,26 +4212,26 @@
       <c r="DW35"/>
     </row>
     <row r="36" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76">
+      <c r="B36" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P36" s="76"/>
+      <c r="P36" s="57"/>
       <c r="S36"/>
       <c r="T36"/>
       <c r="U36"/>
@@ -4754,26 +4343,26 @@
       <c r="DW36"/>
     </row>
     <row r="37" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73">
+      <c r="B37" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P37" s="73"/>
+      <c r="P37" s="55"/>
       <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
@@ -4885,26 +4474,26 @@
       <c r="DW37"/>
     </row>
     <row r="38" spans="2:127" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76">
+      <c r="B38" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P38" s="76"/>
+      <c r="P38" s="57"/>
       <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
@@ -5142,38 +4731,38 @@
       <c r="DW39"/>
     </row>
     <row r="40" spans="2:127" s="1" customFormat="1" ht="38.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B40" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84">
+      <c r="B40" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51">
         <f>SUM(O19:P38)</f>
         <v>1545454</v>
       </c>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="85"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="52"/>
       <c r="I40" s="32">
         <v>10</v>
       </c>
-      <c r="J40" s="84">
+      <c r="J40" s="51">
         <f>ROUNDUP(D40*I40/100,0)</f>
         <v>154546</v>
       </c>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="86"/>
-      <c r="O40" s="84">
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="53"/>
+      <c r="O40" s="51">
         <f>D40+J40</f>
         <v>1700000</v>
       </c>
-      <c r="P40" s="84"/>
+      <c r="P40" s="51"/>
       <c r="S40"/>
       <c r="T40"/>
       <c r="U40"/>
@@ -5664,7 +5253,7 @@
     </row>
     <row r="44" spans="2:127" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="39"/>
       <c r="D44" s="17"/>
@@ -5917,7 +5506,7 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="44" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M46" s="4"/>
       <c r="S46"/>
@@ -6040,7 +5629,7 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47" s="4"/>
       <c r="S47"/>
@@ -6162,16 +5751,14 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="J48" s="24"/>
       <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="45"/>
       <c r="N48" s="17"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="81"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
       <c r="S48"/>
       <c r="T48"/>
       <c r="U48"/>
@@ -6287,12 +5874,12 @@
       <c r="C49" s="39"/>
       <c r="D49" s="33"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
       <c r="I49" s="17"/>
       <c r="J49" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L49" s="35"/>
       <c r="M49" s="4"/>
@@ -6417,9 +6004,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="46" t="s">
-        <v>21</v>
-      </c>
+      <c r="J50" s="46"/>
       <c r="M50" s="4"/>
       <c r="S50"/>
       <c r="T50"/>
@@ -6577,6 +6162,100 @@
     <row r="56" spans="1:127" ht="24.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:J13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="B10:J11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
     <mergeCell ref="O48:Q48"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="B40:C40"/>
@@ -6593,100 +6272,6 @@
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:J13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="B10:J11"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
